--- a/analiticosxlsx/7.xlsx
+++ b/analiticosxlsx/7.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemora/Documents/Github/Scrapers/Presupuesto 2023/analiticosxlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEECECB6-860A-F345-BFC6-2957A5BAC633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="28800" yWindow="-1660" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -14,16 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">PROYECTO DE LEY DE PRESUPUESTOS PARA EL AÑO 2023 CUADRO COMPARATIVO ANALITICO AÑOS 2022 - 2023</t>
+      <t>PROYECTO DE LEY DE PRESUPUESTOS PARA EL AÑO 2023 CUADRO COMPARATIVO ANALITICO AÑOS 2022 - 2023</t>
     </r>
   </si>
   <si>
@@ -51,17 +57,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PROGRAMA    : UNIDADES DE APOYO A TRIBUNALES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PARTIDA</t>
+      <t>PROGRAMA    : UNIDADES DE APOYO A TRIBUNALES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARTIDA</t>
     </r>
     <r>
       <rPr>
@@ -86,7 +92,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">CAPITULO</t>
+      <t>CAPITULO</t>
     </r>
     <r>
       <rPr>
@@ -111,57 +117,57 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PROGRAMA : 02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">En miles de $</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sub- Título</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Asig.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CLASIFICACIÓN PRESUPUESTARIA</t>
+      <t>PROGRAMA : 02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>En miles de $</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sub- Título</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Item</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Asig.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLASIFICACIÓN PRESUPUESTARIA</t>
     </r>
   </si>
   <si>
@@ -189,7 +195,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(En $ de 2022)</t>
+      <t>(En $ de 2022)</t>
     </r>
   </si>
   <si>
@@ -217,7 +223,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(En $ de 2022)</t>
+      <t>(En $ de 2022)</t>
     </r>
   </si>
   <si>
@@ -236,7 +242,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(En $ de 2022)</t>
+      <t>(En $ de 2022)</t>
     </r>
   </si>
   <si>
@@ -264,7 +270,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(En $ de 2023)</t>
+      <t>(En $ de 2023)</t>
     </r>
   </si>
   <si>
@@ -283,7 +289,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(En $ de 2023)</t>
+      <t>(En $ de 2023)</t>
     </r>
   </si>
   <si>
@@ -320,7 +326,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(En $ de 2023)</t>
+      <t>(En $ de 2023)</t>
     </r>
   </si>
   <si>
@@ -348,162 +354,150 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(6) / (4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">INGRESOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">OTROS INGRESOS CORRIENTES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Recuperaciones y Reembolsos por Licencias</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Médicas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Otros</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">APORTE FISCAL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Libre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">RECUPERACIÓN DE PRÉSTAMOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ingresos por Percibir</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GASTOS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GASTOS EN PERSONAL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Otras Remuneraciones</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Gasto de Estado de Operaciones*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">*GASTOS-(Subt.25+30+32+34+35) + Ítem25.01+Intereses y Otros Gastos Financieros de Deuda + Gasto Proyectado Fondo de Emergencia Transitorio</t>
+      <t>(6) / (4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>INGRESOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OTROS INGRESOS CORRIENTES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recuperaciones y Reembolsos por Licencias</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Médicas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Otros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>APORTE FISCAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Libre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RECUPERACIÓN DE PRÉSTAMOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ingresos por Percibir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GASTOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GASTOS EN PERSONAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gasto de Estado de Operaciones*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*GASTOS-(Subt.25+30+32+34+35) + Ítem25.01+Intereses y Otros Gastos Financieros de Deuda + Gasto Proyectado Fondo de Emergencia Transitorio</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0_);(0)"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0 %"/>
-    <numFmt numFmtId="167" formatCode="00"/>
-    <numFmt numFmtId="168" formatCode="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0.0\ %"/>
+    <numFmt numFmtId="166" formatCode="00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -514,16 +508,23 @@
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="7.5"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -697,173 +698,164 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="28" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="28"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="9" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="9" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fillId="0" borderId="8" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="10" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="9" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="8" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="10" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="10" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fillId="0" borderId="10" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="10" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fillId="0" borderId="10" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fillId="0" borderId="10" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="10" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fillId="0" borderId="10" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="9" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fillId="0" borderId="9" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="9" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fillId="0" borderId="8" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="8" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="9" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="8" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fillId="0" borderId="8" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fillId="0" borderId="9" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fillId="0" borderId="9" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="11" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="12" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="13" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,11 +864,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -918,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,9 +950,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,6 +1002,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1159,515 +1195,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:L20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="4.666667"/>
-    <col min="2" max="2" customWidth="1" width="4.666667"/>
-    <col min="3" max="3" customWidth="1" width="4.666667"/>
-    <col min="4" max="4" customWidth="1" width="37.333333"/>
-    <col min="5" max="5" customWidth="1" width="17.333333"/>
-    <col min="6" max="6" customWidth="1" width="17.333333"/>
-    <col min="7" max="7" customWidth="1" width="16.222222"/>
-    <col min="8" max="8" customWidth="1" width="17.333333"/>
-    <col min="9" max="9" customWidth="1" width="17.333333"/>
-    <col min="10" max="10" customWidth="1" width="16.222222"/>
-    <col min="11" max="11" customWidth="1" width="17.333333"/>
-    <col min="12" max="12" customWidth="1" width="12.666667"/>
+    <col min="1" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" customWidth="1"/>
+    <col min="5" max="6" width="17.3984375" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="9" width="17.3984375" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.50" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="35.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="5.25" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="21.00" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="6">
         <v>-1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="7">
         <v>-2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="6">
         <v>-3</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="6">
         <v>-4</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="6">
         <v>-5</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="6">
         <v>-6</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="6">
         <v>-7</v>
       </c>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20" t="s">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="12" t="s">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="12">
         <v>23598603</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="13">
         <v>23220492</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="12">
         <v>17790601</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="12">
         <v>25085315</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="12">
         <v>31216973</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="12">
         <v>6131658</v>
       </c>
-      <c r="K7" s="26">
-        <v>0.244000</v>
-      </c>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A8" s="27">
-        <v>08</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="13" t="s">
+      <c r="K7" s="14">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="32">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17">
         <v>414561</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="34" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35">
-        <v>01</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="34" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="36">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="21">
         <v>414474</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="10.00" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="37">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="22">
         <v>99</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="38">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="23">
         <v>87</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A12" s="35">
-        <v>09</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="34" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="21">
         <v>23598603</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="24">
         <v>23220492</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="21">
         <v>16698383</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="21">
         <v>25085315</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="21">
         <v>31216973</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="21">
         <v>6131658</v>
       </c>
-      <c r="K12" s="40">
-        <v>0.244000</v>
-      </c>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="10.00" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35">
-        <v>01</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="34" t="s">
+      <c r="K12" s="25">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="21">
         <v>23598603</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="24">
         <v>23220492</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="21">
         <v>16698383</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="21">
         <v>25085315</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="21">
         <v>31216973</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="21">
         <v>6131658</v>
       </c>
-      <c r="K13" s="40">
-        <v>0.244000</v>
-      </c>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A14" s="37">
+      <c r="K13" s="25">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="34" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="36">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21">
         <v>677657</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="10.00" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27">
         <v>10</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="43">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="28">
         <v>677657</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="12" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="12">
         <v>23598603</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="13">
         <v>23220492</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="12">
         <v>15676737</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="12">
         <v>25085315</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="12">
         <v>31216973</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="12">
         <v>6131658</v>
       </c>
-      <c r="K16" s="26">
-        <v>0.244000</v>
-      </c>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A17" s="44">
+      <c r="K16" s="14">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="29">
         <v>21</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="17">
         <v>23598603</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="31">
         <v>23220492</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="17">
         <v>15676737</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="17">
         <v>25085315</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="17">
         <v>31216973</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="17">
         <v>6131658</v>
       </c>
-      <c r="K17" s="49">
-        <v>0.244000</v>
-      </c>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="10.75" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="50">
-        <v>03</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="14" t="s">
+      <c r="K17" s="32">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="10.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="43">
-        <v>378111</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="43">
-        <v>401932</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43">
-        <v>-401932</v>
-      </c>
-      <c r="K18" s="51">
-        <v>-1.000000</v>
-      </c>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="10.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="9.75" customHeight="1">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="12">
+        <v>23598603</v>
+      </c>
+      <c r="F19" s="13">
+        <v>23220492</v>
+      </c>
+      <c r="G19" s="12">
+        <v>15676737</v>
+      </c>
+      <c r="H19" s="12">
+        <v>25085315</v>
+      </c>
+      <c r="I19" s="12">
+        <v>31216973</v>
+      </c>
+      <c r="J19" s="12">
+        <v>6131658</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="24">
-        <v>23598603</v>
-      </c>
-      <c r="F20" s="25">
-        <v>23220492</v>
-      </c>
-      <c r="G20" s="24">
-        <v>15676737</v>
-      </c>
-      <c r="H20" s="24">
-        <v>25085315</v>
-      </c>
-      <c r="I20" s="24">
-        <v>31216973</v>
-      </c>
-      <c r="J20" s="24">
-        <v>6131658</v>
-      </c>
-      <c r="K20" s="26">
-        <v>0.244000</v>
-      </c>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:L20"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="I2:L2"/>
@@ -1676,10 +1687,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
